--- a/biology/Histoire de la zoologie et de la botanique/Tito_Pasqui/Tito_Pasqui.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Tito_Pasqui/Tito_Pasqui.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tito Pasqui (né le 1er août 1846 à Forlì, en Émilie-Romagne et mort le 7 juillet 1925 (à 78 ans) dans la même ville) est un agronome et un homme politique italien.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tito Pasqui était le fils de l'agronome Gaetano Pasqui et de Gertrude Silvagni.
 Volontaire dans la Troisième guerre d'indépendance italienne avec Giuseppe Garibaldi, il reprit ses études après avoir déposé les armes, et passa une licence de mathématiques et un diplôme d'ingénieur civil. Il fut d'abord assistant à l'École agricole de Bologne.
